--- a/epidemic model/6-sector/crisisPerSector.xlsx
+++ b/epidemic model/6-sector/crisisPerSector.xlsx
@@ -19,20 +19,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
-  <si>
-    <t>Financial Crisis Dummy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+  <si>
+    <t>NFB</t>
+  </si>
+  <si>
+    <t>HH&amp;NP</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S&amp;LG</t>
   </si>
   <si>
     <t>FG</t>
   </si>
   <si>
-    <t>DFS</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>1952Q1</t>
   </si>
   <si>
@@ -796,15 +802,6 @@
   </si>
   <si>
     <t>2015Q3</t>
-  </si>
-  <si>
-    <t>NFB</t>
-  </si>
-  <si>
-    <t>HH&amp;NP</t>
-  </si>
-  <si>
-    <t>S&amp;LG</t>
   </si>
 </sst>
 </file>
@@ -820,12 +817,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -840,8 +843,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1124,61 +1128,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257:XFD257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1201,10 +1184,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1224,7 +1207,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1247,7 +1230,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1270,7 +1253,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1288,12 +1271,12 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1308,15 +1291,15 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1331,15 +1314,15 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1354,18 +1337,18 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1374,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1397,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1408,7 +1391,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1420,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1431,7 +1414,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1443,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1454,7 +1437,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1472,12 +1455,12 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1489,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1500,7 +1483,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1515,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1523,7 +1506,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1532,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1546,7 +1529,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1555,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,12 +1547,12 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1578,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,12 +1570,12 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1601,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,12 +1593,12 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1630,15 +1613,15 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1661,10 +1644,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1679,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1699,15 +1682,15 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1719,18 +1702,18 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1742,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1771,12 +1754,12 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1788,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1799,7 +1782,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1822,7 +1805,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1834,18 +1817,18 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1857,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1868,7 +1851,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1880,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1891,7 +1874,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1903,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1914,7 +1897,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1932,12 +1915,12 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1955,12 +1938,12 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1983,7 +1966,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2006,22 +1989,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2029,7 +2012,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2052,7 +2035,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2075,7 +2058,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2087,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2098,7 +2081,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2113,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2121,7 +2104,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2130,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2144,7 +2127,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2153,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2167,7 +2150,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2176,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2190,13 +2173,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2205,15 +2188,15 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2236,7 +2219,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2259,7 +2242,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2271,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2282,7 +2265,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2291,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2300,12 +2283,12 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2328,7 +2311,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2351,7 +2334,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2363,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2374,7 +2357,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2383,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2392,12 +2375,12 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2415,12 +2398,12 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2443,19 +2426,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2466,7 +2449,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2475,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2498,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2507,12 +2490,12 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2530,12 +2513,12 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2558,30 +2541,30 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2593,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2604,7 +2587,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2627,7 +2610,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2636,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2650,7 +2633,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2659,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2673,19 +2656,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2696,13 +2679,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2719,13 +2702,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2742,13 +2725,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2760,12 +2743,12 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2788,7 +2771,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2811,7 +2794,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2823,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2834,7 +2817,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2843,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2857,16 +2840,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2875,12 +2858,12 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2889,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2903,19 +2886,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2926,13 +2909,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2941,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2949,7 +2932,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2961,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2972,7 +2955,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2995,7 +2978,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3007,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3018,7 +3001,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3030,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3041,7 +3024,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3053,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3064,7 +3047,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3076,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3087,7 +3070,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3099,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3110,7 +3093,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3119,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3133,7 +3116,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3142,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3151,12 +3134,12 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3165,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3179,7 +3162,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3188,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3202,7 +3185,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3211,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3225,16 +3208,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3243,12 +3226,12 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3257,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3271,16 +3254,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3289,27 +3272,27 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3317,22 +3300,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3340,7 +3323,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3352,18 +3335,18 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3375,18 +3358,18 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3398,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3409,7 +3392,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3418,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3432,7 +3415,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3441,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3455,7 +3438,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3464,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3478,7 +3461,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3487,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3501,7 +3484,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3513,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3524,7 +3507,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3547,7 +3530,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3556,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3570,7 +3553,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3593,7 +3576,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3605,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3616,22 +3599,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3639,7 +3622,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3662,7 +3645,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3685,7 +3668,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3694,21 +3677,21 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3717,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3731,7 +3714,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3740,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3754,7 +3737,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3763,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3777,7 +3760,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3786,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3800,22 +3783,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3823,22 +3806,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3846,30 +3829,30 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3878,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3887,12 +3870,12 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3915,7 +3898,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3933,35 +3916,35 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3979,12 +3962,12 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3996,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4007,19 +3990,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4030,19 +4013,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4053,7 +4036,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4076,7 +4059,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4088,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4099,7 +4082,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4111,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4122,7 +4105,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4134,18 +4117,18 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4168,7 +4151,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4191,7 +4174,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4214,7 +4197,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4237,7 +4220,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4249,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4260,7 +4243,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -4272,18 +4255,18 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -4301,12 +4284,12 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -4318,18 +4301,18 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -4341,18 +4324,18 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -4364,18 +4347,18 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -4387,18 +4370,18 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4407,21 +4390,21 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -4430,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4439,12 +4422,12 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -4462,12 +4445,12 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4479,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4490,7 +4473,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -4502,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4513,7 +4496,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -4522,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4531,12 +4514,12 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -4551,15 +4534,15 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -4571,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4582,7 +4565,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -4594,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4605,7 +4588,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4623,12 +4606,12 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4646,12 +4629,12 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4663,18 +4646,18 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4686,18 +4669,18 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4715,12 +4698,12 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4732,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4743,7 +4726,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4766,19 +4749,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4789,10 +4772,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4807,15 +4790,15 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4827,18 +4810,18 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4847,21 +4830,21 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4870,21 +4853,21 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4893,21 +4876,21 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4916,18 +4899,18 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4939,41 +4922,41 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4985,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -4996,10 +4979,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -5008,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5019,33 +5002,33 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -5054,21 +5037,21 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -5088,16 +5071,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -5111,19 +5094,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -5134,19 +5117,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -5157,16 +5140,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -5175,47 +5158,47 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5226,16 +5209,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5249,7 +5232,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -5258,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5267,12 +5250,12 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -5281,21 +5264,21 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -5304,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -5318,16 +5301,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -5341,16 +5324,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -5359,21 +5342,21 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5382,15 +5365,15 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -5399,21 +5382,21 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5422,18 +5405,18 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5456,7 +5439,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -5479,7 +5462,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5491,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5502,39 +5485,39 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -5548,7 +5531,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -5571,7 +5554,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -5594,16 +5577,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -5617,7 +5600,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -5635,12 +5618,12 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -5658,27 +5641,27 @@
         <v>0</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5686,7 +5669,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -5698,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -5709,7 +5692,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5732,7 +5715,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -5755,7 +5738,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -5767,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -5778,7 +5761,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -5790,33 +5773,33 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -5824,7 +5807,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -5847,10 +5830,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -5870,10 +5853,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -5882,10 +5865,10 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -5893,10 +5876,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -5911,21 +5894,21 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -5934,27 +5917,27 @@
         <v>0</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210">
         <v>0</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -5962,22 +5945,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -5985,10 +5968,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -6000,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6008,10 +5991,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -6031,10 +6014,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6043,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -6054,19 +6037,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -6077,7 +6060,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -6092,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -6100,65 +6083,65 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218">
         <v>0</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6169,10 +6152,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -6192,10 +6175,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -6215,7 +6198,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -6224,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -6233,24 +6216,24 @@
         <v>0</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6261,7 +6244,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -6270,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -6284,16 +6267,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -6307,13 +6290,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -6322,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6330,13 +6313,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -6353,19 +6336,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6376,22 +6359,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6399,22 +6382,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6422,10 +6405,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -6437,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6445,10 +6428,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -6457,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6468,76 +6451,76 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -6549,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6560,10 +6543,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -6572,10 +6555,10 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6583,59 +6566,59 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -6652,7 +6635,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -6664,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6675,7 +6658,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -6687,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6698,36 +6681,36 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -6736,21 +6719,21 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -6767,19 +6750,19 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6790,22 +6773,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6813,16 +6796,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6831,21 +6814,21 @@
         <v>0</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -6859,16 +6842,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -6882,16 +6865,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -6900,21 +6883,21 @@
         <v>0</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -6923,15 +6906,15 @@
         <v>0</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>255</v>
+      <c r="A253" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -6943,18 +6926,18 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -6966,21 +6949,21 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -6989,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -6997,7 +6980,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -7030,17 +7013,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D156EDECDFFA04389F38E90B325C883" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7c04d2d39ad5b5759ef8ba5679918ee">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0343a904-03a6-4420-a0c7-59ff8ba6adb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10c043409dcd935feb895d13645ae8c9" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D156EDECDFFA04389F38E90B325C883" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="850b17d93829132e00f7f5c2b9e52ce8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0343a904-03a6-4420-a0c7-59ff8ba6adb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460b37c1992b3a1ac10c5beb5f3563e4" ns2:_="">
     <xsd:import namespace="0343a904-03a6-4420-a0c7-59ff8ba6adb7"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -7186,25 +7160,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB215A86-6080-4206-8E99-8F14EFDCC964}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD40E39-FD93-4730-B01D-A869336125D1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0343a904-03a6-4420-a0c7-59ff8ba6adb7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6778B81-693E-45AD-838D-46215E8B9E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F09E5E9-A7CB-40C3-98D0-BC0B57911982}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADF87-2587-4247-9B29-2B1B43014E05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7219,4 +7201,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E41A533-4482-49CA-914B-EA22AF9908CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>